--- a/vt_vervestacks_ITA_v1.xlsx
+++ b/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids_syn_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF46A95-6E55-4DE6-8983-57BD3A6A1BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10D66000-6AC7-4C37-8062-82108C306FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{8F7D39E8-9DFC-4A11-97FE-B62044AC3446}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{5E36B043-421C-4B1D-A508-BF3679C2CCBB}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="4" r:id="rId1"/>
@@ -3653,7 +3653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8304F6C6-0320-4075-B1CC-5D836CAB6FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62B93E-DC21-477C-B965-EAB6BA45FA7D}">
   <dimension ref="B9:T165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -11045,7 +11045,7 @@
         <v>935</v>
       </c>
       <c r="P141" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="Q141" t="s">
         <v>389</v>
@@ -11101,7 +11101,7 @@
         <v>935</v>
       </c>
       <c r="P142" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="Q142" t="s">
         <v>389</v>
@@ -12377,7 +12377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BAFF36-DCEF-43E7-B592-BF3CBC562B74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00936A9A-A404-4AD7-A9DE-6660FA2FEC42}">
   <dimension ref="B9:T100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17428,7 +17428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F501860-2056-4A7E-BEA2-9439813D3ABF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808EA8D-E0AD-42EB-9B97-F85B03C384D1}">
   <dimension ref="B9:T544"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24391,7 +24391,7 @@
         <v>150</v>
       </c>
       <c r="P141" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="Q141" t="s">
         <v>389</v>
@@ -24444,7 +24444,7 @@
         <v>150</v>
       </c>
       <c r="P142" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="Q142" t="s">
         <v>389</v>
@@ -32005,7 +32005,7 @@
         <v>314</v>
       </c>
       <c r="P288" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="Q288" t="s">
         <v>389</v>
@@ -32058,7 +32058,7 @@
         <v>314</v>
       </c>
       <c r="P289" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="Q289" t="s">
         <v>389</v>
@@ -32217,7 +32217,7 @@
         <v>319</v>
       </c>
       <c r="P292" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="Q292" t="s">
         <v>389</v>
@@ -32270,7 +32270,7 @@
         <v>319</v>
       </c>
       <c r="P293" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="Q293" t="s">
         <v>389</v>
@@ -32482,7 +32482,7 @@
         <v>326</v>
       </c>
       <c r="P297" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="Q297" t="s">
         <v>389</v>
@@ -32535,7 +32535,7 @@
         <v>326</v>
       </c>
       <c r="P298" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="Q298" t="s">
         <v>389</v>
@@ -32588,7 +32588,7 @@
         <v>328</v>
       </c>
       <c r="P299" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="Q299" t="s">
         <v>389</v>
@@ -32641,7 +32641,7 @@
         <v>328</v>
       </c>
       <c r="P300" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="Q300" t="s">
         <v>389</v>
@@ -32853,7 +32853,7 @@
         <v>336</v>
       </c>
       <c r="P304" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="Q304" t="s">
         <v>389</v>
@@ -32906,7 +32906,7 @@
         <v>336</v>
       </c>
       <c r="P305" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="Q305" t="s">
         <v>389</v>
@@ -33701,7 +33701,7 @@
         <v>363</v>
       </c>
       <c r="P320" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="Q320" t="s">
         <v>389</v>
@@ -33754,7 +33754,7 @@
         <v>363</v>
       </c>
       <c r="P321" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="Q321" t="s">
         <v>389</v>
@@ -34319,7 +34319,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L332">
-        <v>0.20827624154866115</v>
+        <v>0.20827624154866126</v>
       </c>
     </row>
     <row r="333" spans="2:20" x14ac:dyDescent="0.25">
@@ -34342,7 +34342,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L333">
-        <v>0.20827624154866115</v>
+        <v>0.20827624154866126</v>
       </c>
     </row>
     <row r="334" spans="2:20" x14ac:dyDescent="0.25">
@@ -34365,7 +34365,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L334">
-        <v>0.20827624154866115</v>
+        <v>0.20827624154866126</v>
       </c>
     </row>
     <row r="335" spans="2:20" x14ac:dyDescent="0.25">
@@ -37048,7 +37048,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L411">
-        <v>0.17863101551144783</v>
+        <v>0.17863101551144786</v>
       </c>
     </row>
     <row r="412" spans="2:12" x14ac:dyDescent="0.25">
@@ -37071,7 +37071,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L412">
-        <v>0.17863101551144783</v>
+        <v>0.17863101551144786</v>
       </c>
     </row>
     <row r="413" spans="2:12" x14ac:dyDescent="0.25">
@@ -37094,7 +37094,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L413">
-        <v>0.17863101551144783</v>
+        <v>0.17863101551144786</v>
       </c>
     </row>
     <row r="414" spans="2:12" x14ac:dyDescent="0.25">
@@ -41688,7 +41688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7461AE86-B690-4438-9970-8F6810D49F12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A22418-257A-4208-AC63-2722BC8A0454}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
